--- a/biology/Médecine/Nerf_facial/Nerf_facial.xlsx
+++ b/biology/Médecine/Nerf_facial/Nerf_facial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf facial (VII) et son nerf accessoire, le nerf intermédiaire (ancien nerf intermédiaire de Wrisberg), est le septième nerf crânien (sur un total de 12 paires), le nerf intermédiaire portant le numéro VII bis. Il émerge de la base du cerveau entre la protubérance annulaire et le bulbe rachidien au niveau du sillon bulbo pontique. Le VII a sous son contrôle les muscles de l'expression faciale (muscles peauciers), le VII bis assurant le transport d'informations sensorielles gustatives des 2/3 antérieurs de la langue ainsi que le contrôle parasympathique des glandes salivaires sublinguale et sub mandibulaire, et des glandes lacrymales, nasales et palatines. 
 Le nerf facial a plusieurs rôles :
@@ -518,7 +530,9 @@
           <t>Noyaux centraux du nerf facial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau somato-moteur du nerf facial se situe dans le pont du tronc cérébral. On comptabilise aussi les noyaux salivaire supérieur et lacrymo-nasal qui génèrent des fibres accompagnant le nerf facial sous le nom de nerf intermédiaire de Wrisberg (VII bis).
 La racine nerveuse du VII sort à la face antéro-laterale, entre la protubérance et le bulbe, du tronc cérébral, toujours accompagnée du VII bis. Les fibres transportant la sensibilité gustative des 2/3 antérieurs de la langue aboutissent au noyau gustatif supérieur, annexé au tractus solitaire avec la sensibilité de la région de Ramsey Hunt.
@@ -550,7 +564,9 @@
           <t>Anatomie du nerf facial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il émerge au niveau du sillon bulbo-protubérantiel dans la fossette olivaire sur le prolongement du faisceau latéral du bulbe, 4  à   5 mm en arrière et en dehors du nerf abducens (VI) et légèrement en avant du nerf vestibulocochléaire (VIII), le nerf intermédiaire naissant dans l'intervalle séparant le VII du VIII.
 Il se dirige en haut, en avant et en dehors pour pénétrer dans le conduit auditif interne dont l'orifice d'entrée est situé sur la face postéro-supérieure du rocher. Il se place dans le quadrant antéro-supérieur de ce conduit, séparé du nerf cochléo-vestibulaire, qui occupe la portion inféro-postérieure du conduit, par le nerf intermédiaire. À l'extrémité du conduit, le nerf s'engage et emprunte à cet endroit le canal du facial (anciennement appelé aqueduc de Fallope). Ce canal très sinueux et complexe traverse le rocher pour en sortir au niveau du foramen stylo-mastoïdien. On convient de diviser cette partie intratemporale en trois portions: une première portion dite labyrinthique située dans le prolongement de la précédente c'est-à-dire orientée en dehors et en avant, une portion tympanique orientée en arrière et en dehors, une portion mastoïdienne orientée vers le bas.
@@ -586,19 +602,11 @@
           <t>Branche terminale supérieure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un peu plus considérable que l'inférieure, cette branche appelée aussi temporo-faciale se dirige en haut et en avant vers le col du condyle de la mandibule où elle reçoit un ou deux rameaux du nerf temporal superficiel. Puis le nerf se divise à nouveau en ses nouvelles branches terminales.
-Branche temporale
-Verticale, elle croise en avant l'arcade zygomatique et se termine dans les muscles auriculaires antérieur et supérieur.
-Branche frontale
-Plus volumineuse que la précédente, elle se dirige en avant et en haut vers le bord latéral du ventre frontal du muscle occipito-frontal sous lequel elle va passer. Elle innerve le muscle occipito-frontal, le muscle sourcilier et le muscle orbiculaire de l'œil.
-Branche palpébrale
-Légèrement ascendante, elle se divise en plusieurs rameaux au voisinage du muscle orbiculaire de l'œil certains innervant la partie supérieure du muscle, d'autres la partie inférieure
-Branche nasale
-Horizontale, elle surplombe le canal de Sténon. Elle innerve les deux muscles zygomatiques, le releveur de la lèvre supérieure, le releveur naso-labial, le transversal du nez, le muscle élévateur de l'angle de la bouche, le muscle pyramidal du nez et une partie du muscle orbiculaire de l'œil.
-Branche buccale
-La plus basse, elle peut naitre aussi de la branche située en dessous, passe en dessous du canal de Sténon, elle innerve le muscle buccinateur, le muscle triangulaire des lèvres et la portion supérieure du muscle orbiculaire de la bouche.
 </t>
         </is>
       </c>
@@ -624,16 +632,236 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Branche terminale supérieure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Branche temporale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verticale, elle croise en avant l'arcade zygomatique et se termine dans les muscles auriculaires antérieur et supérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Branche terminale supérieure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Branche frontale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus volumineuse que la précédente, elle se dirige en avant et en haut vers le bord latéral du ventre frontal du muscle occipito-frontal sous lequel elle va passer. Elle innerve le muscle occipito-frontal, le muscle sourcilier et le muscle orbiculaire de l'œil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Branche terminale supérieure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Branche palpébrale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Légèrement ascendante, elle se divise en plusieurs rameaux au voisinage du muscle orbiculaire de l'œil certains innervant la partie supérieure du muscle, d'autres la partie inférieure
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Branche terminale supérieure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Branche nasale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horizontale, elle surplombe le canal de Sténon. Elle innerve les deux muscles zygomatiques, le releveur de la lèvre supérieure, le releveur naso-labial, le transversal du nez, le muscle élévateur de l'angle de la bouche, le muscle pyramidal du nez et une partie du muscle orbiculaire de l'œil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Branche terminale supérieure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Branche buccale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus basse, elle peut naitre aussi de la branche située en dessous, passe en dessous du canal de Sténon, elle innerve le muscle buccinateur, le muscle triangulaire des lèvres et la portion supérieure du muscle orbiculaire de la bouche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Branche terminale inférieure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Appelée aussi branche cervico-faciale, elle se dirige en bas, en avant et en dedans et arrivée au niveau de l'angle de la mandibule se divise en plusieurs branches.
-Branche buccale
-Branche mentonnière
-Branche cervicale
-Elle descend en dessous du muscle platysma qu'elle innerve
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Branche terminale inférieure</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Branche cervicale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle descend en dessous du muscle platysma qu'elle innerve
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
 The motor part of the facial nerve arises from the facial nerve nucleus in the pons while the sensory part of the facial nerve arises from the nervus intermedius.
@@ -647,79 +875,120 @@
 La branche cervicale du nerf facial
 À côté des cinq branches principales, le nerf facial donne également naissance au nerf auriculaire postérieur qui contrôle les mouvements de certains muscles du scalp crânien autour de l'oreille.
 Traduire ce texte • Outils • (+)
-Faisceaux cortico-nucléaires moteurs
-Le cortex primaire moteur est la zone d'affrance motrice, dont la zone suppléant le visage est assez latéralisée, juste au-dessus du lobe pariétal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Branche terminale inférieure</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Faisceaux cortico-nucléaires moteurs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex primaire moteur est la zone d'affrance motrice, dont la zone suppléant le visage est assez latéralisée, juste au-dessus du lobe pariétal.
 Les neurones suppléant la moitié inférieure du visage se projettent sur le noyau du nerf facial controlatéral, ceux suppléant la moitié supérieure se projettent sur les noyaux des deux côtés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nerf_facial</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Examen du nerf facial</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Éléments cliniques
-Il faut être à l'affût de la présence de toute asymétrie du visage telle une paupière ou une commissure labiale plus basse d'un côté que de l'autre. Ces asymétries peuvent apparaître lors de mouvements conscients ou encore spontanés. L'observation attentive est donc essentielle.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éléments cliniques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Il faut être à l'affût de la présence de toute asymétrie du visage telle une paupière ou une commissure labiale plus basse d'un côté que de l'autre. Ces asymétries peuvent apparaître lors de mouvements conscients ou encore spontanés. L'observation attentive est donc essentielle.
 Lors d'une atteinte bilatérale, il peut être indiqué de comparer le visage avec une photo plus ancienne de la personne.
 En clinique, la fonction du nerf crânien VII peut être vérifiée simplement en observant la personne et en lui demandant d'effectuer certains gestes :
 Hausser les sourcils de façon à plisser le front
 Froncer les sourcils
 Fermer les yeux et les garder fermés contre une résistance délicatement appliquée par l'examinateur
 Montrer les dents
-Gonfler les joues
-Exploration électro-physiologique</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nerf_facial</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Gonfler les joues</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nerf_facial</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_facial</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Pathologie du nerf facial</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Paralysie faciale, mono-ou bilatérale, pouvant faire évoquer de nombreuses maladies dont une paralysie a frigore ou la maladie de Lyme[1].</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Paralysie faciale, mono-ou bilatérale, pouvant faire évoquer de nombreuses maladies dont une paralysie a frigore ou la maladie de Lyme.</t>
         </is>
       </c>
     </row>
